--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/IOWA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/IOWA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D578"/>
+  <dimension ref="A1:D572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C5">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C17">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C26">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C44">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C51">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C58">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C92">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C95">
@@ -1701,7 +1701,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C101">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C105">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C109">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C110">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C112">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C115">
@@ -1914,7 +1914,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C116">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C123">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C126">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C134">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C141">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C147">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C155">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C157">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2514,7 +2514,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C161">
@@ -2553,7 +2553,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C164">
@@ -2566,7 +2566,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C165">
@@ -2605,7 +2605,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C168">
@@ -2618,7 +2618,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C169">
@@ -2631,7 +2631,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C170">
@@ -2670,7 +2670,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C173">
@@ -2683,7 +2683,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C174">
@@ -2748,7 +2748,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C179">
@@ -2774,7 +2774,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C181">
@@ -2800,7 +2800,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C183">
@@ -2917,7 +2917,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C192">
@@ -2969,7 +2969,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C196">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C197">
@@ -3065,7 +3065,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C203">
@@ -3078,7 +3078,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C204">
@@ -3104,7 +3104,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C206">
@@ -3117,7 +3117,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C207">
@@ -3130,7 +3130,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C208">
@@ -3195,7 +3195,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C213">
@@ -3208,7 +3208,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C214">
@@ -3247,7 +3247,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C217">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3343,7 +3343,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C224">
@@ -3369,7 +3369,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C226">
@@ -3499,7 +3499,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C236">
@@ -3551,7 +3551,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C240">
@@ -3590,7 +3590,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C243">
@@ -3603,7 +3603,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C244">
@@ -3707,7 +3707,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C252">
@@ -3720,7 +3720,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C253">
@@ -3746,7 +3746,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C255">
@@ -3759,7 +3759,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C256">
@@ -3772,7 +3772,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C257">
@@ -3785,7 +3785,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C258">
@@ -3850,7 +3850,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C263">
@@ -3876,7 +3876,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C265">
@@ -3928,7 +3928,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C269">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C270">
@@ -3954,7 +3954,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C272">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C273">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C275">
@@ -4154,7 +4154,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C286">
@@ -4180,7 +4180,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C288">
@@ -4382,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="D303">
-        <v>0.009703196347031963</v>
+        <v>0.009703196347031965</v>
       </c>
     </row>
     <row r="304">
@@ -4900,7 +4900,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C343">
@@ -5030,7 +5030,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C353">
@@ -5113,7 +5113,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C359">
@@ -5261,7 +5261,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C370">
@@ -5300,7 +5300,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C373">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C375">
@@ -5370,7 +5370,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C378">
@@ -5396,7 +5396,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C380">
@@ -5409,7 +5409,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C381">
@@ -5461,7 +5461,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C385">
@@ -5474,7 +5474,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C386">
@@ -5591,7 +5591,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C395">
@@ -5825,7 +5825,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C413">
@@ -5934,7 +5934,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C421">
@@ -5947,7 +5947,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C422">
@@ -5986,7 +5986,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C425">
@@ -6134,7 +6134,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C436">
@@ -6295,7 +6295,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C448">
@@ -6360,7 +6360,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C453">
@@ -6513,7 +6513,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C464">
@@ -6897,7 +6897,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C492">
@@ -7027,7 +7027,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C502">
@@ -7092,7 +7092,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C507">
@@ -7144,7 +7144,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C511">
@@ -7170,7 +7170,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C513">
@@ -7183,7 +7183,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C514">
@@ -7274,7 +7274,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C521">
@@ -7300,7 +7300,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C523">
@@ -7365,7 +7365,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C528">
@@ -7443,7 +7443,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C534">
@@ -7596,7 +7596,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C545">
@@ -7609,7 +7609,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C546">
@@ -7629,7 +7629,7 @@
         <v>17</v>
       </c>
       <c r="D547">
-        <v>0.009703196347031963</v>
+        <v>0.009703196347031965</v>
       </c>
     </row>
     <row r="548">
@@ -7739,7 +7739,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C556">
@@ -7869,7 +7869,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C566">
@@ -7955,41 +7955,6 @@
       </c>
       <c r="D572">
         <v>1</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/IOWA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/IOWA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>San Francisco De Los Romo</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Nava</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1221,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1421,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tamazula</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Chiconcuac</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Soyaniquilpan De Juárez</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Villa Guerero</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>León</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2512,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2525,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2538,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2551,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2564,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2577,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2590,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -2603,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -2616,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2629,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -2642,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2655,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2668,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2681,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -2694,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2707,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2720,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2733,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -2746,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2759,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2772,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -2785,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2798,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -2811,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2824,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2837,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2850,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -2863,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2876,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2889,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2902,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2915,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2928,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2941,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2954,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2967,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -2980,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2993,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3006,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3050,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -3063,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Agua Blanca De Iturbide</t>
@@ -3076,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -3089,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3102,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3115,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -3128,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3141,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3154,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3167,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3180,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3193,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -3206,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3219,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -3232,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -3245,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3258,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -3271,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3284,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3315,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -3328,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -3341,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Atemajac De Brizuela</t>
@@ -3354,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -3367,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3380,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -3393,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -3406,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -3419,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -3432,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -3445,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3458,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -3471,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3484,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -3497,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -3510,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -3523,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -3536,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -3549,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -3562,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3575,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -3588,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -3601,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3614,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -3627,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Mascota</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Mixtlán</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>San Sebastián Del Oeste</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Santa María De Los Ángeles</t>
@@ -3783,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -3796,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tapalpa</t>
@@ -3809,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -3822,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -3835,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -3848,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4061,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -4074,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -4087,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4100,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -4113,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4126,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4139,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -4152,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -4165,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Cojumatlán De Régules</t>
@@ -4191,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -4256,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -4269,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4282,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4295,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -4308,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -4321,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -4334,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -4347,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -4360,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4373,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4386,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4399,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4412,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4425,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4438,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4451,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4464,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -4477,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Numarán</t>
@@ -4490,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -4503,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -4516,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4529,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4542,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Penjamillo</t>
@@ -4555,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -4568,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -4581,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -4594,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4898,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Coatlán Del Río</t>
@@ -4911,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4924,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4937,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4950,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -4963,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -4976,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -4989,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -5002,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -5015,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -5028,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -5041,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -5054,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5067,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -5080,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5111,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Amatlán De Cañas</t>
@@ -5124,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -5137,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -5150,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -5163,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5176,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -5189,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5202,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5215,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5246,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>General Terán</t>
@@ -5259,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -5272,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5285,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Rayones</t>
@@ -5298,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -5311,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>San Agustín Amatengo</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Agustín Atenango</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San Felipe Jalapa De Díaz</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Juan Cacahuatepec</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>San Juan Yucuita</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Miguel Chimalapa</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>San Miguel Mixtepec</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Santa Cruz Nundaco</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Trinidad Zaachila</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5867,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -5880,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -5893,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Chiconcuautla</t>
@@ -5906,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5919,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -5932,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -5945,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -5958,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -5971,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5984,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -5997,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6010,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -6023,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -6036,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6049,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -6062,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6093,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6106,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -6119,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6132,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6145,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6176,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -6189,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -6202,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6215,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6228,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -6241,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -6254,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6267,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6280,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6293,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -6306,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -6319,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -6332,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6345,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -6358,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -6371,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6402,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -6415,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -6428,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -6441,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -6454,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6485,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -6498,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -6511,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -6524,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -6537,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6568,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -6581,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -6594,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6625,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -6638,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -6651,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>González</t>
@@ -6664,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -6677,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -6690,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -6703,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -6716,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -6729,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -6742,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -6755,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -6768,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6799,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -6812,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -6825,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -6838,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6869,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Agua Dulce</t>
@@ -6882,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -6895,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -6908,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -6921,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -6934,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -6947,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -6960,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -6973,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Cerro Azul</t>
@@ -6986,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -6999,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -7012,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7025,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7038,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -7051,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -7064,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -7077,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -7090,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -7103,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Jalcomulco</t>
@@ -7116,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -7129,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -7142,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -7155,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7168,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -7181,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -7194,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -7207,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -7220,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -7233,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -7246,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -7259,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -7272,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -7285,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -7298,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -7311,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -7324,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -7337,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -7350,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -7363,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -7376,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Tepetlán</t>
@@ -7389,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -7402,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -7415,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -7428,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -7441,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -7454,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -7467,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -7480,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -7493,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -7506,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -7519,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7550,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7581,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -7594,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Concepción Del Oro</t>
@@ -7607,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>El Plateado De Joaquín Amaro</t>
@@ -7620,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -7633,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -7646,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -7659,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -7672,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -7685,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -7698,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -7711,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -7724,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Melchor Ocampo</t>
@@ -7737,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Mezquital Del Oro</t>
@@ -7750,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -7763,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -7776,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -7789,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -7802,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -7815,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -7828,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -7841,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -7854,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -7867,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -7880,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -7893,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -7906,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -7919,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -7932,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Total</t>
